--- a/scripts/Classifications_from_Glossary_Terms.xlsx
+++ b/scripts/Classifications_from_Glossary_Terms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanes.sharepoint.com/sites/DataGovernance297/Shared Documents/General/Purview/Classifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0336C0A-CA4B-4F79-8BF1-0984007F83E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C11AA6-55AD-48CD-81CF-C0EB77CA98AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38835" yWindow="255" windowWidth="18135" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>Base Unit of Measure</t>
   </si>
   <si>
-    <t>Base Unit of Measure, BUOM, Unit of Measure, UOM</t>
+    <t>Base Unit of Measure, Base UOM, BUOM, Unit of Measure, UOM</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -694,7 +694,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1142,7 +1142,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1400,6 +1400,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DB3BAA1812B841B2E36C77F2714D7B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="38ab6503e57958b987f1af7c733c0791">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c" xmlns:ns3="0a0cce24-4f5d-4807-bc09-f8d701f4a390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f65dc122b1df5bb2422e6558850f9c9" ns2:_="" ns3:_="">
     <xsd:import namespace="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c"/>
@@ -1570,23 +1579,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA4BC1-89CB-4E2B-8F90-EBA333F1264D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}"/>
 </file>
--- a/scripts/Classifications_from_Glossary_Terms.xlsx
+++ b/scripts/Classifications_from_Glossary_Terms.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanes.sharepoint.com/sites/DataGovernance297/Shared Documents/General/Purview/Classifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C11AA6-55AD-48CD-81CF-C0EB77CA98AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32389C6F-1144-43E2-889C-953C27678EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38835" yWindow="255" windowWidth="18135" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33165" yWindow="-900" windowWidth="19290" windowHeight="11520" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TERM_INFO" sheetId="1" r:id="rId1"/>
     <sheet name="ABBREVIATION_MAPPINGS" sheetId="2" r:id="rId2"/>
+    <sheet name="IGNORE_WORDS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
   <si>
     <t>Classification_Name</t>
   </si>
@@ -84,6 +85,9 @@
     <t>Bill of Materials</t>
   </si>
   <si>
+    <t>Bill of Material</t>
+  </si>
+  <si>
     <t>Bill of Materials, Bill of Material, BOM</t>
   </si>
   <si>
@@ -343,6 +347,18 @@
   </si>
   <si>
     <t>WH</t>
+  </si>
+  <si>
+    <t>Keyword_in_Reference</t>
+  </si>
+  <si>
+    <t>Words_to_Ignore</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
 </sst>
 </file>
@@ -693,8 +709,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -773,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -785,15 +801,15 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.45">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -805,15 +821,15 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -825,15 +841,15 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.45">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -845,15 +861,15 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -865,15 +881,15 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -885,16 +901,16 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="14.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -906,15 +922,15 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.45">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -926,15 +942,15 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.45">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -946,15 +962,15 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.45">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -966,15 +982,15 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.45">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -986,15 +1002,15 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.45">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1006,15 +1022,15 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.45">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1026,15 +1042,15 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.45">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1046,15 +1062,15 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.45">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1066,15 +1082,15 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.45">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1086,15 +1102,15 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.45">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1106,15 +1122,15 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.45">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1126,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1158,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1154,237 +1170,280 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B257FE06-D943-43B7-8AFE-7A987070110C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1394,12 +1453,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1408,7 +1461,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DB3BAA1812B841B2E36C77F2714D7B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="38ab6503e57958b987f1af7c733c0791">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c" xmlns:ns3="0a0cce24-4f5d-4807-bc09-f8d701f4a390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f65dc122b1df5bb2422e6558850f9c9" ns2:_="" ns3:_="">
     <xsd:import namespace="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c"/>
@@ -1579,14 +1632,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA4BC1-89CB-4E2B-8F90-EBA333F1264D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA4BC1-89CB-4E2B-8F90-EBA333F1264D}"/>
 </file>
--- a/scripts/Classifications_from_Glossary_Terms.xlsx
+++ b/scripts/Classifications_from_Glossary_Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanes.sharepoint.com/sites/DataGovernance297/Shared Documents/General/Purview/Classifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanes-my.sharepoint.com/personal/hannah_allen_hanes_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32389C6F-1144-43E2-889C-953C27678EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{32389C6F-1144-43E2-889C-953C27678EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA8156FE-494F-45F2-9E7C-C00305E62615}"/>
   <bookViews>
-    <workbookView xWindow="33165" yWindow="-900" windowWidth="19290" windowHeight="11520" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TERM_INFO" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="109">
   <si>
     <t>Classification_Name</t>
   </si>
@@ -359,13 +359,19 @@
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>Experts</t>
+  </si>
+  <si>
+    <t>Stewards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,24 +713,24 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="2" max="2" width="51.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
     <col min="6" max="6" width="102" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,8 +749,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.45">
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -764,7 +776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -784,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45">
+    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -804,7 +816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -824,7 +836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45">
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -844,7 +856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45">
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -864,7 +876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45">
+    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -884,7 +896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45">
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -905,7 +917,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45">
+    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -925,7 +937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45">
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -945,7 +957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45">
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -965,7 +977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45">
+    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -985,7 +997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45">
+    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45">
+    <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1025,7 +1037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45">
+    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45">
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1065,7 +1077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45">
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45">
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45">
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45">
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1162,13 +1174,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1179,7 +1191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1195,7 +1207,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1219,7 +1231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1227,7 +1239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1251,7 +1263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1283,7 +1295,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1331,7 +1343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1347,7 +1359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -1355,7 +1367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -1363,7 +1375,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1371,7 +1383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1395,7 +1407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -1413,18 +1425,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B257FE06-D943-43B7-8AFE-7A987070110C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="71.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="71.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1453,6 +1465,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1461,7 +1479,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DB3BAA1812B841B2E36C77F2714D7B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="38ab6503e57958b987f1af7c733c0791">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c" xmlns:ns3="0a0cce24-4f5d-4807-bc09-f8d701f4a390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f65dc122b1df5bb2422e6558850f9c9" ns2:_="" ns3:_="">
     <xsd:import namespace="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c"/>
@@ -1632,20 +1650,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA4BC1-89CB-4E2B-8F90-EBA333F1264D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA4BC1-89CB-4E2B-8F90-EBA333F1264D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c"/>
+    <ds:schemaRef ds:uri="0a0cce24-4f5d-4807-bc09-f8d701f4a390"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>